--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AR2_50_9_matched_errors_T55.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AR2_50_9_matched_errors_T55.xlsx
@@ -513,31 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2.45278688403014</v>
+        <v>2.411890494488538</v>
       </c>
       <c r="C2">
-        <v>9.947971089954345</v>
+        <v>9.921937215030141</v>
       </c>
       <c r="D2">
-        <v>-8.211502821155351</v>
+        <v>-8.223290560045655</v>
       </c>
       <c r="E2">
-        <v>-0.0659170680648129</v>
+        <v>-0.07183182115535164</v>
       </c>
       <c r="F2">
-        <v>2.084523681843447</v>
+        <v>2.081653799935187</v>
       </c>
       <c r="G2">
-        <v>-1.35409869825023</v>
+        <v>-1.355506186156552</v>
       </c>
       <c r="H2">
-        <v>-1.414584793147165</v>
+        <v>-1.41527269825023</v>
       </c>
       <c r="I2">
-        <v>0.6272077902335593</v>
+        <v>0.6268712068528354</v>
       </c>
       <c r="J2">
-        <v>0.04477741780622588</v>
+        <v>0.04461279023355938</v>
+      </c>
+      <c r="K2">
+        <v>0.1404525618062259</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -545,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1.537235586080065</v>
+        <v>9.006385917080065</v>
       </c>
       <c r="C3">
-        <v>9.392532175304375</v>
+        <v>-8.778729474695623</v>
       </c>
       <c r="D3">
-        <v>-8.530422531353118</v>
+        <v>-0.3907515313531172</v>
       </c>
       <c r="E3">
-        <v>-0.2751194525324077</v>
+        <v>1.872451415467592</v>
       </c>
       <c r="F3">
-        <v>1.93130625003464</v>
+        <v>-1.50872361796536</v>
       </c>
       <c r="G3">
-        <v>-1.479553567856255</v>
+        <v>-1.540727567856255</v>
       </c>
       <c r="H3">
-        <v>-1.526157184940621</v>
+        <v>0.5152988150593795</v>
       </c>
       <c r="I3">
-        <v>0.5225600362996292</v>
+        <v>-0.06003496370037081</v>
       </c>
       <c r="J3">
-        <v>-0.0564138607580475</v>
+        <v>0.03926128324195249</v>
       </c>
       <c r="K3">
-        <v>0.041066735657356</v>
+        <v>-0.219352408342644</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -580,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2.227302292717427</v>
+        <v>-15.94395935728257</v>
       </c>
       <c r="C4">
-        <v>-14.30507732890006</v>
+        <v>-6.165406328900056</v>
       </c>
       <c r="D4">
-        <v>-4.917177413464427</v>
+        <v>-2.769606545464427</v>
       </c>
       <c r="E4">
-        <v>-1.819221578597504</v>
+        <v>-5.259251446597505</v>
       </c>
       <c r="F4">
-        <v>-4.535638736670638</v>
+        <v>-4.596812736670638</v>
       </c>
       <c r="G4">
-        <v>-4.045861956105766</v>
+        <v>-2.004405956105766</v>
       </c>
       <c r="H4">
-        <v>-1.58491807464721</v>
+        <v>-2.16751307464721</v>
       </c>
       <c r="I4">
-        <v>-1.848119602675451</v>
+        <v>-1.752444458675451</v>
       </c>
       <c r="J4">
-        <v>-1.509261772244841</v>
+        <v>-1.769680916244841</v>
       </c>
       <c r="K4">
-        <v>-1.584524286040335</v>
+        <v>-0.749069286040335</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -615,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-12.62489618233083</v>
+        <v>-4.485225182330832</v>
       </c>
       <c r="C5">
-        <v>2.498867349044278</v>
+        <v>4.646438217044278</v>
       </c>
       <c r="D5">
-        <v>0.4288347376275889</v>
+        <v>-3.011195130372411</v>
       </c>
       <c r="E5">
-        <v>-0.554277721481464</v>
+        <v>-0.6154517214814641</v>
       </c>
       <c r="F5">
-        <v>-2.067680054195791</v>
+        <v>-0.0262240541957911</v>
       </c>
       <c r="G5">
-        <v>0.8270881714231106</v>
+        <v>0.2444931714231107</v>
       </c>
       <c r="H5">
-        <v>-0.2581092241744875</v>
+        <v>-0.1624340801744875</v>
       </c>
       <c r="I5">
-        <v>0.1333107740649579</v>
+        <v>-0.1271083699350421</v>
       </c>
       <c r="J5">
-        <v>-0.3012016463330128</v>
+        <v>0.5342533536669872</v>
       </c>
       <c r="K5">
-        <v>0.6367186679346297</v>
+        <v>0.5366457149346298</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -650,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1.228339177673717</v>
+        <v>0.9192316903262832</v>
       </c>
       <c r="C6">
-        <v>2.291705392391212</v>
+        <v>-1.148324475608788</v>
       </c>
       <c r="D6">
-        <v>-1.315186645652444</v>
+        <v>-1.376360645652444</v>
       </c>
       <c r="E6">
-        <v>-1.517449058573539</v>
+        <v>0.5240069414264609</v>
       </c>
       <c r="F6">
-        <v>0.5798349304998711</v>
+        <v>-0.002760069500128914</v>
       </c>
       <c r="G6">
-        <v>0.002474916446533804</v>
+        <v>0.09815006044653379</v>
       </c>
       <c r="H6">
-        <v>0.08952975383526968</v>
+        <v>-0.1708893901647303</v>
       </c>
       <c r="I6">
-        <v>-0.1695141488638116</v>
+        <v>0.6659408511361884</v>
       </c>
       <c r="J6">
-        <v>0.6667485897783219</v>
+        <v>0.5666756367783218</v>
       </c>
       <c r="K6">
-        <v>0.5663006126625323</v>
+        <v>0.2125075656625323</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -685,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2.699937846012982</v>
+        <v>-0.740092021987018</v>
       </c>
       <c r="C7">
-        <v>-1.06356360176605</v>
+        <v>-1.12473760176605</v>
       </c>
       <c r="D7">
-        <v>-1.599355112396674</v>
+        <v>0.4421008876033256</v>
       </c>
       <c r="E7">
-        <v>0.6549269798811568</v>
+        <v>0.07233197988115672</v>
       </c>
       <c r="F7">
-        <v>0.1083820769602576</v>
+        <v>0.2040572209602576</v>
       </c>
       <c r="G7">
-        <v>0.1479463999939251</v>
+        <v>-0.1124727440060749</v>
       </c>
       <c r="H7">
-        <v>-0.1030754650337201</v>
+        <v>0.7323795349662799</v>
       </c>
       <c r="I7">
-        <v>0.7414305483891583</v>
+        <v>0.6413575953891584</v>
       </c>
       <c r="J7">
-        <v>0.6366139045635111</v>
+        <v>0.2828208575635111</v>
       </c>
       <c r="K7">
-        <v>0.2823415042266514</v>
+        <v>0.4305195042266514</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -720,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1.169062813614865</v>
+        <v>-1.230236813614865</v>
       </c>
       <c r="C8">
-        <v>-1.725460396362032</v>
+        <v>0.3159956036379677</v>
       </c>
       <c r="D8">
-        <v>0.8231750485143884</v>
+        <v>0.2405800485143884</v>
       </c>
       <c r="E8">
-        <v>0.1690461695641399</v>
+        <v>0.2647213135641399</v>
       </c>
       <c r="F8">
-        <v>0.159079239368558</v>
+        <v>-0.101339904631442</v>
       </c>
       <c r="G8">
-        <v>-0.04021271370678947</v>
+        <v>0.7952422862932105</v>
       </c>
       <c r="H8">
-        <v>0.7987820761829015</v>
+        <v>0.6987091231829015</v>
       </c>
       <c r="I8">
-        <v>0.68111908156789</v>
+        <v>0.3273260345678901</v>
       </c>
       <c r="J8">
-        <v>0.33341537525307</v>
+        <v>0.48159337525307</v>
       </c>
       <c r="K8">
-        <v>0.4838159431822899</v>
+        <v>0.6412619431822899</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -755,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-2.329901016209771</v>
+        <v>-0.2884450162097709</v>
       </c>
       <c r="C9">
-        <v>0.758971671159695</v>
+        <v>0.176376671159695</v>
       </c>
       <c r="D9">
-        <v>0.4605934776213567</v>
+        <v>0.5562686216213567</v>
       </c>
       <c r="E9">
-        <v>0.1213723632826244</v>
+        <v>-0.1390467807173756</v>
       </c>
       <c r="F9">
-        <v>-0.04879673378025057</v>
+        <v>0.7866582662197494</v>
       </c>
       <c r="G9">
-        <v>0.8825231537802698</v>
+        <v>0.7824502007802698</v>
       </c>
       <c r="H9">
-        <v>0.7159462264959351</v>
+        <v>0.3621531794959351</v>
       </c>
       <c r="I9">
-        <v>0.359979758305367</v>
+        <v>0.508157758305367</v>
       </c>
       <c r="J9">
-        <v>0.5293147839288888</v>
+        <v>0.6867607839288887</v>
       </c>
       <c r="K9">
-        <v>0.6788178843816368</v>
+        <v>0.1781548843816368</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -790,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.6713308423207838</v>
+        <v>0.08873584232078371</v>
       </c>
       <c r="C10">
-        <v>0.4081742755916882</v>
+        <v>0.5038494195916882</v>
       </c>
       <c r="D10">
-        <v>0.18001876026763</v>
+        <v>-0.08040038373236996</v>
       </c>
       <c r="E10">
-        <v>-0.04386758844314925</v>
+        <v>0.7915874115568508</v>
       </c>
       <c r="F10">
-        <v>0.8714298707313746</v>
+        <v>0.7713569177313746</v>
       </c>
       <c r="G10">
-        <v>0.7287129257210216</v>
+        <v>0.3749198787210216</v>
       </c>
       <c r="H10">
-        <v>0.3687093173527261</v>
+        <v>0.5168873173527261</v>
       </c>
       <c r="I10">
-        <v>0.5318167280777406</v>
+        <v>0.6892627280777406</v>
       </c>
       <c r="J10">
-        <v>0.6850938218533179</v>
+        <v>0.1844308218533179</v>
       </c>
       <c r="K10">
-        <v>0.1817452544735015</v>
+        <v>0.4621062544735015</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -825,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.4306022552246968</v>
+        <v>0.5262773992246967</v>
       </c>
       <c r="C11">
-        <v>0.1826222998300787</v>
+        <v>-0.07779684416992128</v>
       </c>
       <c r="D11">
-        <v>-0.06593527409716449</v>
+        <v>0.7695197259028355</v>
       </c>
       <c r="E11">
-        <v>0.8654478904270196</v>
+        <v>0.7653749374270196</v>
       </c>
       <c r="F11">
-        <v>0.7233696755386105</v>
+        <v>0.3695766285386105</v>
       </c>
       <c r="G11">
-        <v>0.3583407839823598</v>
+        <v>0.5065187839823598</v>
       </c>
       <c r="H11">
-        <v>0.5233394059541168</v>
+        <v>0.6807854059541167</v>
       </c>
       <c r="I11">
-        <v>0.6773215135465072</v>
+        <v>0.1766585135465071</v>
       </c>
       <c r="J11">
-        <v>0.1731212809405329</v>
+        <v>0.4534822809405329</v>
       </c>
       <c r="K11">
-        <v>0.4559179537672726</v>
+        <v>0.2839429537672726</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -860,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.2040468712872988</v>
+        <v>-0.05637227271270118</v>
       </c>
       <c r="C12">
-        <v>0.05424257470204791</v>
+        <v>0.8896975747020479</v>
       </c>
       <c r="D12">
-        <v>0.7762535460132365</v>
+        <v>0.6761805930132365</v>
       </c>
       <c r="E12">
-        <v>0.6936426716900327</v>
+        <v>0.3398496246900327</v>
       </c>
       <c r="F12">
-        <v>0.3669669040122699</v>
+        <v>0.51514490401227</v>
       </c>
       <c r="G12">
-        <v>0.4973992325286816</v>
+        <v>0.6548452325286815</v>
       </c>
       <c r="H12">
-        <v>0.6545429505182796</v>
+        <v>0.1538799505182796</v>
       </c>
       <c r="I12">
-        <v>0.1595032457919151</v>
+        <v>0.4398642457919151</v>
       </c>
       <c r="J12">
-        <v>0.4373971565820968</v>
+        <v>0.2654221565820968</v>
       </c>
       <c r="K12">
-        <v>0.2648072220727796</v>
+        <v>0.5706702220727796</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -895,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.01192194238165845</v>
+        <v>0.8473769423816584</v>
       </c>
       <c r="C13">
-        <v>0.7470490721575034</v>
+        <v>0.6469761191575033</v>
       </c>
       <c r="D13">
-        <v>0.6906220718851115</v>
+        <v>0.3368290248851115</v>
       </c>
       <c r="E13">
-        <v>0.3481056204007895</v>
+        <v>0.4962836204007895</v>
       </c>
       <c r="F13">
-        <v>0.4770681014634773</v>
+        <v>0.6345141014634773</v>
       </c>
       <c r="G13">
-        <v>0.6400127950840317</v>
+        <v>0.1393497950840318</v>
       </c>
       <c r="H13">
-        <v>0.1428622002996471</v>
+        <v>0.4232232002996471</v>
       </c>
       <c r="I13">
-        <v>0.4198133111533466</v>
+        <v>0.2478383111533466</v>
       </c>
       <c r="J13">
-        <v>0.2483333385427368</v>
+        <v>0.5541963385427369</v>
       </c>
       <c r="K13">
-        <v>0.5550469433309027</v>
+        <v>-0.05728305666909728</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -930,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>1.087246812775413</v>
+        <v>0.9871738597754134</v>
       </c>
       <c r="C14">
-        <v>0.7659931336690486</v>
+        <v>0.4122000866690486</v>
       </c>
       <c r="D14">
-        <v>0.1570123340877904</v>
+        <v>0.3051903340877904</v>
       </c>
       <c r="E14">
-        <v>0.5017620140502106</v>
+        <v>0.6592080140502106</v>
       </c>
       <c r="F14">
-        <v>0.6493921986403277</v>
+        <v>0.1487291986403278</v>
       </c>
       <c r="G14">
-        <v>0.08805140168825606</v>
+        <v>0.3684124016882561</v>
       </c>
       <c r="H14">
-        <v>0.4009192202646768</v>
+        <v>0.2289442202646768</v>
       </c>
       <c r="I14">
-        <v>0.2334693377276911</v>
+        <v>0.5393323377276911</v>
       </c>
       <c r="J14">
-        <v>0.526335232701532</v>
+        <v>-0.085994767298468</v>
       </c>
       <c r="K14">
-        <v>-0.08123716056912761</v>
+        <v>0.6071338394308724</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -965,34 +968,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>1.216688005659299</v>
+        <v>0.8628949586592991</v>
       </c>
       <c r="C15">
-        <v>0.2041230363001488</v>
+        <v>0.3523010363001488</v>
       </c>
       <c r="D15">
-        <v>0.2614787832594023</v>
+        <v>0.4189247832594023</v>
       </c>
       <c r="E15">
-        <v>0.6853372797061905</v>
+        <v>0.1846742797061906</v>
       </c>
       <c r="F15">
-        <v>0.08600064424866319</v>
+        <v>0.3663616442486632</v>
       </c>
       <c r="G15">
-        <v>0.3243509808286466</v>
+        <v>0.1523759808286466</v>
       </c>
       <c r="H15">
-        <v>0.2060699433524077</v>
+        <v>0.5119329433524077</v>
       </c>
       <c r="I15">
-        <v>0.5000461825038066</v>
+        <v>-0.1122838174961934</v>
       </c>
       <c r="J15">
-        <v>-0.1246344512824602</v>
-      </c>
-      <c r="K15">
-        <v>0.5737435035592049</v>
+        <v>0.5637365487175399</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1000,179 +1000,152 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.5164486232236872</v>
+        <v>0.6646266232236873</v>
       </c>
       <c r="C16">
-        <v>0.3947675229949266</v>
+        <v>0.5522135229949265</v>
       </c>
       <c r="D16">
-        <v>0.506258857889999</v>
+        <v>0.005595857889999001</v>
       </c>
       <c r="E16">
-        <v>0.1141948830192304</v>
+        <v>0.3945558830192304</v>
       </c>
       <c r="F16">
-        <v>0.3603762920210401</v>
+        <v>0.1884012920210401</v>
       </c>
       <c r="G16">
-        <v>0.1685283731481941</v>
+        <v>0.4743913731481941</v>
       </c>
       <c r="H16">
-        <v>0.4945038434164454</v>
+        <v>-0.1178261565835546</v>
       </c>
       <c r="I16">
-        <v>-0.1204591223437116</v>
-      </c>
-      <c r="J16">
-        <v>0.562558789819434</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.5679118776562884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.6303580141027678</v>
+        <v>0.7878040141027678</v>
       </c>
       <c r="C17">
-        <v>0.5909375987643086</v>
+        <v>0.09027459876430857</v>
       </c>
       <c r="D17">
-        <v>-0.03140548361448672</v>
+        <v>0.2489555163855133</v>
       </c>
       <c r="E17">
-        <v>0.3703300348802827</v>
+        <v>0.1983550348802827</v>
       </c>
       <c r="F17">
-        <v>0.183893542847739</v>
+        <v>0.489756542847739</v>
       </c>
       <c r="G17">
-        <v>0.4556555084590223</v>
+        <v>-0.1566744915409777</v>
       </c>
       <c r="H17">
-        <v>-0.1363049313708975</v>
-      </c>
-      <c r="I17">
-        <v>0.5542245613519331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.5520660686291026</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.9019617852456914</v>
+        <v>0.4012987852456914</v>
       </c>
       <c r="C18">
-        <v>0.08568329079670847</v>
+        <v>0.3660442907967085</v>
       </c>
       <c r="D18">
-        <v>0.2078658934307159</v>
+        <v>0.03589089343071589</v>
       </c>
       <c r="E18">
-        <v>0.2128524933129406</v>
+        <v>0.5187154933129405</v>
       </c>
       <c r="F18">
-        <v>0.4913983809139259</v>
+        <v>-0.1209316190860741</v>
       </c>
       <c r="G18">
-        <v>-0.1676325777545246</v>
-      </c>
-      <c r="H18">
-        <v>0.5509995116504074</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.5207384222454754</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.3325084682008229</v>
+        <v>0.6128694682008229</v>
       </c>
       <c r="C19">
-        <v>0.2255217609686054</v>
+        <v>0.05354676096860539</v>
       </c>
       <c r="D19">
-        <v>0.1182302542019461</v>
+        <v>0.4240932542019461</v>
       </c>
       <c r="E19">
-        <v>0.5236157691624059</v>
+        <v>-0.088714230837594</v>
       </c>
       <c r="F19">
-        <v>-0.1552444519268073</v>
-      </c>
-      <c r="G19">
-        <v>0.5301357081011285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.5331265480731927</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.4651981203848173</v>
+        <v>0.2932231203848173</v>
       </c>
       <c r="C20">
-        <v>0.2032544976711596</v>
+        <v>0.5091174976711597</v>
       </c>
       <c r="D20">
-        <v>0.4071311908043919</v>
+        <v>-0.2051988091956081</v>
       </c>
       <c r="E20">
-        <v>-0.1401391802749548</v>
-      </c>
-      <c r="F20">
-        <v>0.5533747437271186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.5482318197250452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.3681145747052469</v>
+        <v>0.6739775747052469</v>
       </c>
       <c r="C21">
-        <v>0.4206684630523081</v>
+        <v>-0.1916615369476919</v>
       </c>
       <c r="D21">
-        <v>-0.2031120992649178</v>
-      </c>
-      <c r="E21">
-        <v>0.5634129094086165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.4852589007350822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.6745175049177161</v>
+        <v>0.06218750491771613</v>
       </c>
       <c r="C22">
-        <v>-0.1037940490828814</v>
-      </c>
-      <c r="D22">
-        <v>0.4518363671933744</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.5845769509171186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.0597343578434324</v>
-      </c>
-      <c r="C23">
-        <v>0.4732568720679752</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.6286366421565677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B24">
-        <v>0.7095000033804217</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AR2_50_9_matched_errors_T55.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AR2_50_9_matched_errors_T55.xlsx
@@ -513,34 +513,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2.411890494488538</v>
+        <v>2.45278688403014</v>
       </c>
       <c r="C2">
-        <v>9.921937215030141</v>
+        <v>9.947971089954345</v>
       </c>
       <c r="D2">
-        <v>-8.223290560045655</v>
+        <v>-8.211502821155351</v>
       </c>
       <c r="E2">
-        <v>-0.07183182115535164</v>
+        <v>-0.0659170680648129</v>
       </c>
       <c r="F2">
-        <v>2.081653799935187</v>
+        <v>2.084523681843447</v>
       </c>
       <c r="G2">
-        <v>-1.355506186156552</v>
+        <v>-1.35409869825023</v>
       </c>
       <c r="H2">
-        <v>-1.41527269825023</v>
+        <v>-1.414584793147165</v>
       </c>
       <c r="I2">
-        <v>0.6268712068528354</v>
+        <v>0.6272077902335593</v>
       </c>
       <c r="J2">
-        <v>0.04461279023355938</v>
-      </c>
-      <c r="K2">
-        <v>0.1404525618062259</v>
+        <v>0.04477741780622588</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +545,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>9.006385917080065</v>
+        <v>1.537235586080065</v>
       </c>
       <c r="C3">
-        <v>-8.778729474695623</v>
+        <v>9.392532175304375</v>
       </c>
       <c r="D3">
-        <v>-0.3907515313531172</v>
+        <v>-8.530422531353118</v>
       </c>
       <c r="E3">
-        <v>1.872451415467592</v>
+        <v>-0.2751194525324077</v>
       </c>
       <c r="F3">
-        <v>-1.50872361796536</v>
+        <v>1.93130625003464</v>
       </c>
       <c r="G3">
-        <v>-1.540727567856255</v>
+        <v>-1.479553567856255</v>
       </c>
       <c r="H3">
-        <v>0.5152988150593795</v>
+        <v>-1.526157184940621</v>
       </c>
       <c r="I3">
-        <v>-0.06003496370037081</v>
+        <v>0.5225600362996292</v>
       </c>
       <c r="J3">
-        <v>0.03926128324195249</v>
+        <v>-0.0564138607580475</v>
       </c>
       <c r="K3">
-        <v>-0.219352408342644</v>
+        <v>0.041066735657356</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +580,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-15.94395935728257</v>
+        <v>2.227302292717427</v>
       </c>
       <c r="C4">
-        <v>-6.165406328900056</v>
+        <v>-14.30507732890006</v>
       </c>
       <c r="D4">
-        <v>-2.769606545464427</v>
+        <v>-4.917177413464427</v>
       </c>
       <c r="E4">
-        <v>-5.259251446597505</v>
+        <v>-1.819221578597504</v>
       </c>
       <c r="F4">
-        <v>-4.596812736670638</v>
+        <v>-4.535638736670638</v>
       </c>
       <c r="G4">
-        <v>-2.004405956105766</v>
+        <v>-4.045861956105766</v>
       </c>
       <c r="H4">
-        <v>-2.16751307464721</v>
+        <v>-1.58491807464721</v>
       </c>
       <c r="I4">
-        <v>-1.752444458675451</v>
+        <v>-1.848119602675451</v>
       </c>
       <c r="J4">
-        <v>-1.769680916244841</v>
+        <v>-1.509261772244841</v>
       </c>
       <c r="K4">
-        <v>-0.749069286040335</v>
+        <v>-1.584524286040335</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +615,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-4.485225182330832</v>
+        <v>-12.62489618233083</v>
       </c>
       <c r="C5">
-        <v>4.646438217044278</v>
+        <v>2.498867349044278</v>
       </c>
       <c r="D5">
-        <v>-3.011195130372411</v>
+        <v>0.4288347376275889</v>
       </c>
       <c r="E5">
-        <v>-0.6154517214814641</v>
+        <v>-0.554277721481464</v>
       </c>
       <c r="F5">
-        <v>-0.0262240541957911</v>
+        <v>-2.067680054195791</v>
       </c>
       <c r="G5">
-        <v>0.2444931714231107</v>
+        <v>0.8270881714231106</v>
       </c>
       <c r="H5">
-        <v>-0.1624340801744875</v>
+        <v>-0.2581092241744875</v>
       </c>
       <c r="I5">
-        <v>-0.1271083699350421</v>
+        <v>0.1333107740649579</v>
       </c>
       <c r="J5">
-        <v>0.5342533536669872</v>
+        <v>-0.3012016463330128</v>
       </c>
       <c r="K5">
-        <v>0.5366457149346298</v>
+        <v>0.6367186679346297</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +650,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.9192316903262832</v>
+        <v>-1.228339177673717</v>
       </c>
       <c r="C6">
-        <v>-1.148324475608788</v>
+        <v>2.291705392391212</v>
       </c>
       <c r="D6">
-        <v>-1.376360645652444</v>
+        <v>-1.315186645652444</v>
       </c>
       <c r="E6">
-        <v>0.5240069414264609</v>
+        <v>-1.517449058573539</v>
       </c>
       <c r="F6">
-        <v>-0.002760069500128914</v>
+        <v>0.5798349304998711</v>
       </c>
       <c r="G6">
-        <v>0.09815006044653379</v>
+        <v>0.002474916446533804</v>
       </c>
       <c r="H6">
-        <v>-0.1708893901647303</v>
+        <v>0.08952975383526968</v>
       </c>
       <c r="I6">
-        <v>0.6659408511361884</v>
+        <v>-0.1695141488638116</v>
       </c>
       <c r="J6">
-        <v>0.5666756367783218</v>
+        <v>0.6667485897783219</v>
       </c>
       <c r="K6">
-        <v>0.2125075656625323</v>
+        <v>0.5663006126625323</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +685,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.740092021987018</v>
+        <v>2.699937846012982</v>
       </c>
       <c r="C7">
-        <v>-1.12473760176605</v>
+        <v>-1.06356360176605</v>
       </c>
       <c r="D7">
-        <v>0.4421008876033256</v>
+        <v>-1.599355112396674</v>
       </c>
       <c r="E7">
-        <v>0.07233197988115672</v>
+        <v>0.6549269798811568</v>
       </c>
       <c r="F7">
-        <v>0.2040572209602576</v>
+        <v>0.1083820769602576</v>
       </c>
       <c r="G7">
-        <v>-0.1124727440060749</v>
+        <v>0.1479463999939251</v>
       </c>
       <c r="H7">
-        <v>0.7323795349662799</v>
+        <v>-0.1030754650337201</v>
       </c>
       <c r="I7">
-        <v>0.6413575953891584</v>
+        <v>0.7414305483891583</v>
       </c>
       <c r="J7">
-        <v>0.2828208575635111</v>
+        <v>0.6366139045635111</v>
       </c>
       <c r="K7">
-        <v>0.4305195042266514</v>
+        <v>0.2823415042266514</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +720,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1.230236813614865</v>
+        <v>-1.169062813614865</v>
       </c>
       <c r="C8">
-        <v>0.3159956036379677</v>
+        <v>-1.725460396362032</v>
       </c>
       <c r="D8">
-        <v>0.2405800485143884</v>
+        <v>0.8231750485143884</v>
       </c>
       <c r="E8">
-        <v>0.2647213135641399</v>
+        <v>0.1690461695641399</v>
       </c>
       <c r="F8">
-        <v>-0.101339904631442</v>
+        <v>0.159079239368558</v>
       </c>
       <c r="G8">
-        <v>0.7952422862932105</v>
+        <v>-0.04021271370678947</v>
       </c>
       <c r="H8">
-        <v>0.6987091231829015</v>
+        <v>0.7987820761829015</v>
       </c>
       <c r="I8">
-        <v>0.3273260345678901</v>
+        <v>0.68111908156789</v>
       </c>
       <c r="J8">
-        <v>0.48159337525307</v>
+        <v>0.33341537525307</v>
       </c>
       <c r="K8">
-        <v>0.6412619431822899</v>
+        <v>0.4838159431822899</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +755,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.2884450162097709</v>
+        <v>-2.329901016209771</v>
       </c>
       <c r="C9">
-        <v>0.176376671159695</v>
+        <v>0.758971671159695</v>
       </c>
       <c r="D9">
-        <v>0.5562686216213567</v>
+        <v>0.4605934776213567</v>
       </c>
       <c r="E9">
-        <v>-0.1390467807173756</v>
+        <v>0.1213723632826244</v>
       </c>
       <c r="F9">
-        <v>0.7866582662197494</v>
+        <v>-0.04879673378025057</v>
       </c>
       <c r="G9">
-        <v>0.7824502007802698</v>
+        <v>0.8825231537802698</v>
       </c>
       <c r="H9">
-        <v>0.3621531794959351</v>
+        <v>0.7159462264959351</v>
       </c>
       <c r="I9">
-        <v>0.508157758305367</v>
+        <v>0.359979758305367</v>
       </c>
       <c r="J9">
-        <v>0.6867607839288887</v>
+        <v>0.5293147839288888</v>
       </c>
       <c r="K9">
-        <v>0.1781548843816368</v>
+        <v>0.6788178843816368</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +790,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.08873584232078371</v>
+        <v>0.6713308423207838</v>
       </c>
       <c r="C10">
-        <v>0.5038494195916882</v>
+        <v>0.4081742755916882</v>
       </c>
       <c r="D10">
-        <v>-0.08040038373236996</v>
+        <v>0.18001876026763</v>
       </c>
       <c r="E10">
-        <v>0.7915874115568508</v>
+        <v>-0.04386758844314925</v>
       </c>
       <c r="F10">
-        <v>0.7713569177313746</v>
+        <v>0.8714298707313746</v>
       </c>
       <c r="G10">
-        <v>0.3749198787210216</v>
+        <v>0.7287129257210216</v>
       </c>
       <c r="H10">
-        <v>0.5168873173527261</v>
+        <v>0.3687093173527261</v>
       </c>
       <c r="I10">
-        <v>0.6892627280777406</v>
+        <v>0.5318167280777406</v>
       </c>
       <c r="J10">
-        <v>0.1844308218533179</v>
+        <v>0.6850938218533179</v>
       </c>
       <c r="K10">
-        <v>0.4621062544735015</v>
+        <v>0.1817452544735015</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +825,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.5262773992246967</v>
+        <v>0.4306022552246968</v>
       </c>
       <c r="C11">
-        <v>-0.07779684416992128</v>
+        <v>0.1826222998300787</v>
       </c>
       <c r="D11">
-        <v>0.7695197259028355</v>
+        <v>-0.06593527409716449</v>
       </c>
       <c r="E11">
-        <v>0.7653749374270196</v>
+        <v>0.8654478904270196</v>
       </c>
       <c r="F11">
-        <v>0.3695766285386105</v>
+        <v>0.7233696755386105</v>
       </c>
       <c r="G11">
-        <v>0.5065187839823598</v>
+        <v>0.3583407839823598</v>
       </c>
       <c r="H11">
-        <v>0.6807854059541167</v>
+        <v>0.5233394059541168</v>
       </c>
       <c r="I11">
-        <v>0.1766585135465071</v>
+        <v>0.6773215135465072</v>
       </c>
       <c r="J11">
-        <v>0.4534822809405329</v>
+        <v>0.1731212809405329</v>
       </c>
       <c r="K11">
-        <v>0.2839429537672726</v>
+        <v>0.4559179537672726</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +860,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.05637227271270118</v>
+        <v>0.2040468712872988</v>
       </c>
       <c r="C12">
-        <v>0.8896975747020479</v>
+        <v>0.05424257470204791</v>
       </c>
       <c r="D12">
-        <v>0.6761805930132365</v>
+        <v>0.7762535460132365</v>
       </c>
       <c r="E12">
-        <v>0.3398496246900327</v>
+        <v>0.6936426716900327</v>
       </c>
       <c r="F12">
-        <v>0.51514490401227</v>
+        <v>0.3669669040122699</v>
       </c>
       <c r="G12">
-        <v>0.6548452325286815</v>
+        <v>0.4973992325286816</v>
       </c>
       <c r="H12">
-        <v>0.1538799505182796</v>
+        <v>0.6545429505182796</v>
       </c>
       <c r="I12">
-        <v>0.4398642457919151</v>
+        <v>0.1595032457919151</v>
       </c>
       <c r="J12">
-        <v>0.2654221565820968</v>
+        <v>0.4373971565820968</v>
       </c>
       <c r="K12">
-        <v>0.5706702220727796</v>
+        <v>0.2648072220727796</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +895,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.8473769423816584</v>
+        <v>0.01192194238165845</v>
       </c>
       <c r="C13">
-        <v>0.6469761191575033</v>
+        <v>0.7470490721575034</v>
       </c>
       <c r="D13">
-        <v>0.3368290248851115</v>
+        <v>0.6906220718851115</v>
       </c>
       <c r="E13">
-        <v>0.4962836204007895</v>
+        <v>0.3481056204007895</v>
       </c>
       <c r="F13">
-        <v>0.6345141014634773</v>
+        <v>0.4770681014634773</v>
       </c>
       <c r="G13">
-        <v>0.1393497950840318</v>
+        <v>0.6400127950840317</v>
       </c>
       <c r="H13">
-        <v>0.4232232002996471</v>
+        <v>0.1428622002996471</v>
       </c>
       <c r="I13">
-        <v>0.2478383111533466</v>
+        <v>0.4198133111533466</v>
       </c>
       <c r="J13">
-        <v>0.5541963385427369</v>
+        <v>0.2483333385427368</v>
       </c>
       <c r="K13">
-        <v>-0.05728305666909728</v>
+        <v>0.5550469433309027</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +930,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.9871738597754134</v>
+        <v>1.087246812775413</v>
       </c>
       <c r="C14">
-        <v>0.4122000866690486</v>
+        <v>0.7659931336690486</v>
       </c>
       <c r="D14">
-        <v>0.3051903340877904</v>
+        <v>0.1570123340877904</v>
       </c>
       <c r="E14">
-        <v>0.6592080140502106</v>
+        <v>0.5017620140502106</v>
       </c>
       <c r="F14">
-        <v>0.1487291986403278</v>
+        <v>0.6493921986403277</v>
       </c>
       <c r="G14">
-        <v>0.3684124016882561</v>
+        <v>0.08805140168825606</v>
       </c>
       <c r="H14">
-        <v>0.2289442202646768</v>
+        <v>0.4009192202646768</v>
       </c>
       <c r="I14">
-        <v>0.5393323377276911</v>
+        <v>0.2334693377276911</v>
       </c>
       <c r="J14">
-        <v>-0.085994767298468</v>
+        <v>0.526335232701532</v>
       </c>
       <c r="K14">
-        <v>0.6071338394308724</v>
+        <v>-0.08123716056912761</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,31 +965,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.8628949586592991</v>
+        <v>1.216688005659299</v>
       </c>
       <c r="C15">
-        <v>0.3523010363001488</v>
+        <v>0.2041230363001488</v>
       </c>
       <c r="D15">
-        <v>0.4189247832594023</v>
+        <v>0.2614787832594023</v>
       </c>
       <c r="E15">
-        <v>0.1846742797061906</v>
+        <v>0.6853372797061905</v>
       </c>
       <c r="F15">
-        <v>0.3663616442486632</v>
+        <v>0.08600064424866319</v>
       </c>
       <c r="G15">
-        <v>0.1523759808286466</v>
+        <v>0.3243509808286466</v>
       </c>
       <c r="H15">
-        <v>0.5119329433524077</v>
+        <v>0.2060699433524077</v>
       </c>
       <c r="I15">
-        <v>-0.1122838174961934</v>
+        <v>0.5000461825038066</v>
       </c>
       <c r="J15">
-        <v>0.5637365487175399</v>
+        <v>-0.1246344512824602</v>
+      </c>
+      <c r="K15">
+        <v>0.5737435035592049</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1000,152 +1000,179 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.6646266232236873</v>
+        <v>0.5164486232236872</v>
       </c>
       <c r="C16">
-        <v>0.5522135229949265</v>
+        <v>0.3947675229949266</v>
       </c>
       <c r="D16">
-        <v>0.005595857889999001</v>
+        <v>0.506258857889999</v>
       </c>
       <c r="E16">
-        <v>0.3945558830192304</v>
+        <v>0.1141948830192304</v>
       </c>
       <c r="F16">
-        <v>0.1884012920210401</v>
+        <v>0.3603762920210401</v>
       </c>
       <c r="G16">
-        <v>0.4743913731481941</v>
+        <v>0.1685283731481941</v>
       </c>
       <c r="H16">
-        <v>-0.1178261565835546</v>
+        <v>0.4945038434164454</v>
       </c>
       <c r="I16">
-        <v>0.5679118776562884</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.1204591223437116</v>
+      </c>
+      <c r="J16">
+        <v>0.562558789819434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.7878040141027678</v>
+        <v>0.6303580141027678</v>
       </c>
       <c r="C17">
-        <v>0.09027459876430857</v>
+        <v>0.5909375987643086</v>
       </c>
       <c r="D17">
-        <v>0.2489555163855133</v>
+        <v>-0.03140548361448672</v>
       </c>
       <c r="E17">
-        <v>0.1983550348802827</v>
+        <v>0.3703300348802827</v>
       </c>
       <c r="F17">
-        <v>0.489756542847739</v>
+        <v>0.183893542847739</v>
       </c>
       <c r="G17">
-        <v>-0.1566744915409777</v>
+        <v>0.4556555084590223</v>
       </c>
       <c r="H17">
-        <v>0.5520660686291026</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>-0.1363049313708975</v>
+      </c>
+      <c r="I17">
+        <v>0.5542245613519331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.4012987852456914</v>
+        <v>0.9019617852456914</v>
       </c>
       <c r="C18">
-        <v>0.3660442907967085</v>
+        <v>0.08568329079670847</v>
       </c>
       <c r="D18">
-        <v>0.03589089343071589</v>
+        <v>0.2078658934307159</v>
       </c>
       <c r="E18">
-        <v>0.5187154933129405</v>
+        <v>0.2128524933129406</v>
       </c>
       <c r="F18">
-        <v>-0.1209316190860741</v>
+        <v>0.4913983809139259</v>
       </c>
       <c r="G18">
-        <v>0.5207384222454754</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>-0.1676325777545246</v>
+      </c>
+      <c r="H18">
+        <v>0.5509995116504074</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.6128694682008229</v>
+        <v>0.3325084682008229</v>
       </c>
       <c r="C19">
-        <v>0.05354676096860539</v>
+        <v>0.2255217609686054</v>
       </c>
       <c r="D19">
-        <v>0.4240932542019461</v>
+        <v>0.1182302542019461</v>
       </c>
       <c r="E19">
-        <v>-0.088714230837594</v>
+        <v>0.5236157691624059</v>
       </c>
       <c r="F19">
-        <v>0.5331265480731927</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>-0.1552444519268073</v>
+      </c>
+      <c r="G19">
+        <v>0.5301357081011285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.2932231203848173</v>
+        <v>0.4651981203848173</v>
       </c>
       <c r="C20">
-        <v>0.5091174976711597</v>
+        <v>0.2032544976711596</v>
       </c>
       <c r="D20">
-        <v>-0.2051988091956081</v>
+        <v>0.4071311908043919</v>
       </c>
       <c r="E20">
-        <v>0.5482318197250452</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.1401391802749548</v>
+      </c>
+      <c r="F20">
+        <v>0.5533747437271186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.6739775747052469</v>
+        <v>0.3681145747052469</v>
       </c>
       <c r="C21">
-        <v>-0.1916615369476919</v>
+        <v>0.4206684630523081</v>
       </c>
       <c r="D21">
-        <v>0.4852589007350822</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.2031120992649178</v>
+      </c>
+      <c r="E21">
+        <v>0.5634129094086165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.06218750491771613</v>
+        <v>0.6745175049177161</v>
       </c>
       <c r="C22">
-        <v>0.5845769509171186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.1037940490828814</v>
+      </c>
+      <c r="D22">
+        <v>0.4518363671933744</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.6286366421565677</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.0597343578434324</v>
+      </c>
+      <c r="C23">
+        <v>0.4732568720679752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.7095000033804217</v>
       </c>
     </row>
   </sheetData>
